--- a/MofificationPack.xlsx
+++ b/MofificationPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus22-PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D11E0D8-9EA9-40CB-BAC9-56244736D8D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E709CD-3C16-4BE1-9CCC-145998611F89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,6 +694,9 @@
       <c r="H2" t="s">
         <v>17</v>
       </c>
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
@@ -708,6 +711,9 @@
       <c r="H3" t="s">
         <v>21</v>
       </c>
+      <c r="I3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
@@ -722,6 +728,9 @@
       <c r="H4" t="s">
         <v>25</v>
       </c>
+      <c r="I4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
@@ -736,6 +745,9 @@
       <c r="H5" t="s">
         <v>29</v>
       </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
@@ -750,6 +762,9 @@
       <c r="H6" t="s">
         <v>33</v>
       </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
@@ -781,6 +796,9 @@
       <c r="H8" t="s">
         <v>41</v>
       </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
@@ -818,6 +836,9 @@
       <c r="H10" t="s">
         <v>49</v>
       </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
@@ -855,6 +876,9 @@
       <c r="H12" t="s">
         <v>56</v>
       </c>
+      <c r="I12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
@@ -886,6 +910,9 @@
       <c r="H14" t="s">
         <v>25</v>
       </c>
+      <c r="I14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
@@ -917,6 +944,9 @@
       <c r="H16" t="s">
         <v>33</v>
       </c>
+      <c r="I16" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
@@ -948,6 +978,9 @@
       <c r="H18" t="s">
         <v>41</v>
       </c>
+      <c r="I18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
@@ -985,6 +1018,9 @@
       <c r="H20" t="s">
         <v>56</v>
       </c>
+      <c r="I20" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
@@ -1009,6 +1045,9 @@
       </c>
       <c r="H22" t="s">
         <v>65</v>
+      </c>
+      <c r="I22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">

--- a/MofificationPack.xlsx
+++ b/MofificationPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus22-PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E709CD-3C16-4BE1-9CCC-145998611F89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3397C35-52B4-44E7-8C15-1D6DF61B4961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -312,8 +312,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K23" totalsRowShown="0">
-  <autoFilter ref="A1:K23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K29" totalsRowShown="0">
+  <autoFilter ref="A1:K29" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="_x0009_Step 1"/>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -616,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +705,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>18</v>
       </c>
@@ -711,11 +718,8 @@
       <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>22</v>
       </c>
@@ -728,11 +732,8 @@
       <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>26</v>
       </c>
@@ -745,11 +746,8 @@
       <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>30</v>
       </c>
@@ -762,11 +760,8 @@
       <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="I6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>34</v>
       </c>
@@ -779,11 +774,8 @@
       <c r="H7" t="s">
         <v>37</v>
       </c>
-      <c r="I7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>38</v>
       </c>
@@ -796,11 +788,8 @@
       <c r="H8" t="s">
         <v>41</v>
       </c>
-      <c r="I8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>42</v>
       </c>
@@ -809,9 +798,6 @@
       </c>
       <c r="H9" t="s">
         <v>44</v>
-      </c>
-      <c r="I9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -840,7 +826,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>19</v>
       </c>
@@ -849,9 +835,6 @@
       </c>
       <c r="H11" t="s">
         <v>51</v>
-      </c>
-      <c r="I11" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -880,7 +863,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>18</v>
       </c>
@@ -893,11 +876,8 @@
       <c r="H13" t="s">
         <v>21</v>
       </c>
-      <c r="I13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>22</v>
       </c>
@@ -910,11 +890,8 @@
       <c r="H14" t="s">
         <v>25</v>
       </c>
-      <c r="I14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>26</v>
       </c>
@@ -927,11 +904,8 @@
       <c r="H15" t="s">
         <v>29</v>
       </c>
-      <c r="I15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>30</v>
       </c>
@@ -944,11 +918,8 @@
       <c r="H16" t="s">
         <v>33</v>
       </c>
-      <c r="I16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>34</v>
       </c>
@@ -961,11 +932,8 @@
       <c r="H17" t="s">
         <v>37</v>
       </c>
-      <c r="I17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>38</v>
       </c>
@@ -978,11 +946,8 @@
       <c r="H18" t="s">
         <v>41</v>
       </c>
-      <c r="I18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>42</v>
       </c>
@@ -991,9 +956,6 @@
       </c>
       <c r="H19" t="s">
         <v>57</v>
-      </c>
-      <c r="I19" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1022,7 +984,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>19</v>
       </c>
@@ -1032,11 +994,8 @@
       <c r="H21" t="s">
         <v>63</v>
       </c>
-      <c r="I21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>23</v>
       </c>
@@ -1045,9 +1004,6 @@
       </c>
       <c r="H22" t="s">
         <v>65</v>
-      </c>
-      <c r="I22" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1082,6 +1038,12 @@
         <v>73</v>
       </c>
     </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <tableParts count="1">

--- a/MofificationPack.xlsx
+++ b/MofificationPack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus22-PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3397C35-52B4-44E7-8C15-1D6DF61B4961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAE9A75-0C97-4D1A-9D13-1F6049042C97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,10 +241,10 @@
     <t>User should be navigated to the New problem Page</t>
   </si>
   <si>
-    <t>New Test Case</t>
-  </si>
-  <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>Added</t>
   </si>
 </sst>
 </file>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +702,7 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -823,7 +823,7 @@
         <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -860,7 +860,7 @@
         <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -981,7 +981,7 @@
         <v>56</v>
       </c>
       <c r="I20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1032,10 +1032,10 @@
         <v>72</v>
       </c>
       <c r="I23" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" t="s">
         <v>74</v>
-      </c>
-      <c r="K23" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
